--- a/medicine/Handicap/Take_Shelter/Take_Shelter.xlsx
+++ b/medicine/Handicap/Take_Shelter/Take_Shelter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Take Shelter (signifiant en français « trouver refuge ») est un film dramatique américain écrit et réalisé par Jeff Nichols, sorti en 2011[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Take Shelter (signifiant en français « trouver refuge ») est un film dramatique américain écrit et réalisé par Jeff Nichols, sorti en 2011.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Curtis LaForche, jeune ouvrier en bâtiment résidant dans l'Ohio, est marié à Samantha et père de Hannah, petite fille atteinte de surdité. Il souffre de troubles apparemment délirants et est assailli de visions et de rêves de tornades, de nuages d'étourneaux, de violences dirigées contre lui ou sa famille. Il se questionne d'autant plus que sa mère a été internée pour troubles mentaux à son âge : doit-il protéger sa famille en consacrant son temps et son argent à perfectionner et agrandir l'abri anti-tornades de son jardin ou doit-il se faire soigner ?
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Take Shelter
 Réalisation : Jeff Nichols
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Michael Shannon (V. F. : Emmanuel Gradi) : Curtis LaForche
@@ -606,7 +624,7 @@
 Lisa Gay Hamilton : Kendra, la psychologue
 Tova Stewart : Hannah LaForche, fille sourde muette de Curtis et Samantha
 Joanna Tyler (V. F. : Guylène Ouvrard) : la surveillante
-Source et légende : Version française (V. F.) sur RS Doublage[2]</t>
+Source et légende : Version française (V. F.) sur RS Doublage</t>
         </is>
       </c>
     </row>
@@ -636,10 +654,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Accueil critique
-Take Shelter reçoit des critiques quasi-unanimement positives. L'agrégateur Rotten Tomatoes rapporte que 92 % des 164 critiques ont donné un avis positif sur le film, avec une moyenne de 8,1/10[4]. L'agrégateur Metacritic donne une note de 85 sur 100 pour 34 critiques, indiquant des « critiques positives »[3].
-En France, le site Allociné propose une note moyenne de 4,6⁄5 à partir de l'interprétation de critiques provenant de 27 titres de presse[5].
-Box-office</t>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Take Shelter reçoit des critiques quasi-unanimement positives. L'agrégateur Rotten Tomatoes rapporte que 92 % des 164 critiques ont donné un avis positif sur le film, avec une moyenne de 8,1/10. L'agrégateur Metacritic donne une note de 85 sur 100 pour 34 critiques, indiquant des « critiques positives ».
+En France, le site Allociné propose une note moyenne de 4,6⁄5 à partir de l'interprétation de critiques provenant de 27 titres de presse.
+</t>
         </is>
       </c>
     </row>
@@ -669,8 +692,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival de Cannes 2011 :
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2011 :
 Prix FIPRESCI (section Semaine de la critique)
 Grand prix de la Semaine de la critique
 Prix de la SACD
@@ -681,10 +709,7 @@
 2011 : Prix du meilleur acteur de l'année par l'Austin Film Critics Association pour Michael Shannon
 2011 : Prix du meilleur acteur par le Chicago Film Critics Association Awards pour Michael Shannon
 2012 : Prix du meilleur acteur par le Central Ohio Film Critics Association pour Michael Shannon
-2012 : Prix du meilleur acteur au Chlotrudis Awards pour Michael Shannon
-Nominations
-2011 : Sélection officielle au Festival du film de Sundance 2011
-2013 : Grand prix de l'Union de la critique de cinéma 2013</t>
+2012 : Prix du meilleur acteur au Chlotrudis Awards pour Michael Shannon</t>
         </is>
       </c>
     </row>
@@ -709,13 +734,52 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2011 : Sélection officielle au Festival du film de Sundance 2011
+2013 : Grand prix de l'Union de la critique de cinéma 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Take_Shelter</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Take_Shelter</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Jeff Nichols a signalé que l'idée du film lui était venue alors qu'il s'apprêtait à devenir père. C'est ainsi la peur de cette future responsabilité et un besoin de protection qui sont à l'origine de ce film[6].
-La nouvelle de Philip K. Dick, "Le Constructeur" (1953) aurait également inspiré le film[7].</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jeff Nichols a signalé que l'idée du film lui était venue alors qu'il s'apprêtait à devenir père. C'est ainsi la peur de cette future responsabilité et un besoin de protection qui sont à l'origine de ce film.
+La nouvelle de Philip K. Dick, "Le Constructeur" (1953) aurait également inspiré le film.</t>
         </is>
       </c>
     </row>
